--- a/ConvertedEqual/Wisconsin_Converted.xlsx
+++ b/ConvertedEqual/Wisconsin_Converted.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="272">
   <si>
     <t>Policy/Closing</t>
   </si>
@@ -795,6 +795,42 @@
   </si>
   <si>
     <t>9/29/2020</t>
+  </si>
+  <si>
+    <t>9/30/2020</t>
+  </si>
+  <si>
+    <t>10/1/2020</t>
+  </si>
+  <si>
+    <t>10/2/2020</t>
+  </si>
+  <si>
+    <t>10/3/2020</t>
+  </si>
+  <si>
+    <t>10/4/2020</t>
+  </si>
+  <si>
+    <t>10/5/2020</t>
+  </si>
+  <si>
+    <t>10/6/2020</t>
+  </si>
+  <si>
+    <t>10/7/2020</t>
+  </si>
+  <si>
+    <t>10/8/2020</t>
+  </si>
+  <si>
+    <t>10/9/2020</t>
+  </si>
+  <si>
+    <t>10/10/2020</t>
+  </si>
+  <si>
+    <t>10/11/2020</t>
   </si>
 </sst>
 </file>
@@ -1156,7 +1192,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W221"/>
+  <dimension ref="A1:W233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1470,13 +1506,13 @@
         <v>1</v>
       </c>
       <c r="U7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7">
         <v>1</v>
       </c>
       <c r="W7">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -2688,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="W25">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2759,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="W26">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2830,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="W27">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2901,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="W28">
-        <v>0.2884615384615384</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2972,7 +3008,7 @@
         <v>0</v>
       </c>
       <c r="W29">
-        <v>0.2884615384615384</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -3043,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="W30">
-        <v>0.2884615384615384</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -3114,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="W31">
-        <v>0.2884615384615384</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -3185,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="W32">
-        <v>0.2884615384615384</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -3256,7 +3292,7 @@
         <v>0</v>
       </c>
       <c r="W33">
-        <v>0.8076923076923077</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -3327,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="W34">
-        <v>0.8076923076923077</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3398,7 +3434,7 @@
         <v>0</v>
       </c>
       <c r="W35">
-        <v>0.8076923076923077</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3469,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="W36">
-        <v>0.8076923076923077</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3540,7 +3576,7 @@
         <v>0</v>
       </c>
       <c r="W37">
-        <v>0.8076923076923077</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3611,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="W38">
-        <v>0.8076923076923077</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3682,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="W39">
-        <v>0.8076923076923077</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3753,7 +3789,7 @@
         <v>0</v>
       </c>
       <c r="W40">
-        <v>0.8076923076923077</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3824,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="W41">
-        <v>0.8076923076923077</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3895,7 +3931,7 @@
         <v>0</v>
       </c>
       <c r="W42">
-        <v>0.8076923076923077</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3966,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="W43">
-        <v>0.8076923076923077</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -4037,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="W44">
-        <v>0.8076923076923077</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -4108,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="W45">
-        <v>0.8076923076923077</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -4179,7 +4215,7 @@
         <v>0</v>
       </c>
       <c r="W46">
-        <v>0.8076923076923077</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -4250,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="W47">
-        <v>0.8076923076923077</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -4321,7 +4357,7 @@
         <v>0</v>
       </c>
       <c r="W48">
-        <v>0.8076923076923077</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -4392,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="W49">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -4463,7 +4499,7 @@
         <v>0</v>
       </c>
       <c r="W50">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4534,7 +4570,7 @@
         <v>0</v>
       </c>
       <c r="W51">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4605,7 +4641,7 @@
         <v>0</v>
       </c>
       <c r="W52">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4676,7 +4712,7 @@
         <v>0</v>
       </c>
       <c r="W53">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4747,7 +4783,7 @@
         <v>0</v>
       </c>
       <c r="W54">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4818,7 +4854,7 @@
         <v>0</v>
       </c>
       <c r="W55">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4889,7 +4925,7 @@
         <v>0</v>
       </c>
       <c r="W56">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4960,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="W57">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -5031,7 +5067,7 @@
         <v>0</v>
       </c>
       <c r="W58">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -5102,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="W59">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -5173,7 +5209,7 @@
         <v>0</v>
       </c>
       <c r="W60">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -5244,7 +5280,7 @@
         <v>0</v>
       </c>
       <c r="W61">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -5315,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="W62">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -5386,7 +5422,7 @@
         <v>0</v>
       </c>
       <c r="W63">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -5457,7 +5493,7 @@
         <v>0</v>
       </c>
       <c r="W64">
-        <v>0.8076923076923077</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5528,7 +5564,7 @@
         <v>0</v>
       </c>
       <c r="W65">
-        <v>0.8076923076923077</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5599,7 +5635,7 @@
         <v>0</v>
       </c>
       <c r="W66">
-        <v>0.8076923076923077</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5670,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="W67">
-        <v>0.8076923076923077</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5741,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="W68">
-        <v>0.8076923076923077</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5812,7 +5848,7 @@
         <v>0</v>
       </c>
       <c r="W69">
-        <v>0.7884615384615384</v>
+        <v>0.7708333333333334</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5883,7 +5919,7 @@
         <v>0</v>
       </c>
       <c r="W70">
-        <v>0.7884615384615384</v>
+        <v>0.7708333333333334</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5954,7 +5990,7 @@
         <v>0</v>
       </c>
       <c r="W71">
-        <v>0.75</v>
+        <v>0.7291666666666666</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -6025,7 +6061,7 @@
         <v>0</v>
       </c>
       <c r="W72">
-        <v>0.75</v>
+        <v>0.7291666666666666</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -6096,7 +6132,7 @@
         <v>0</v>
       </c>
       <c r="W73">
-        <v>0.75</v>
+        <v>0.7291666666666666</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -6167,7 +6203,7 @@
         <v>0</v>
       </c>
       <c r="W74">
-        <v>0.75</v>
+        <v>0.7291666666666666</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -6238,7 +6274,7 @@
         <v>0</v>
       </c>
       <c r="W75">
-        <v>0.75</v>
+        <v>0.7291666666666666</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -6309,7 +6345,7 @@
         <v>0</v>
       </c>
       <c r="W76">
-        <v>0.75</v>
+        <v>0.7291666666666666</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -6380,7 +6416,7 @@
         <v>0</v>
       </c>
       <c r="W77">
-        <v>0.75</v>
+        <v>0.7291666666666666</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -6451,7 +6487,7 @@
         <v>0</v>
       </c>
       <c r="W78">
-        <v>0.75</v>
+        <v>0.7291666666666666</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6522,7 +6558,7 @@
         <v>0</v>
       </c>
       <c r="W79">
-        <v>0.75</v>
+        <v>0.7291666666666666</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6593,7 +6629,7 @@
         <v>0</v>
       </c>
       <c r="W80">
-        <v>0.75</v>
+        <v>0.7291666666666666</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6664,7 +6700,7 @@
         <v>0</v>
       </c>
       <c r="W81">
-        <v>0.6730769230769231</v>
+        <v>0.6458333333333334</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6735,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="W82">
-        <v>0.6730769230769231</v>
+        <v>0.6458333333333334</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6806,7 +6842,7 @@
         <v>0</v>
       </c>
       <c r="W83">
-        <v>0.5961538461538461</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6877,7 +6913,7 @@
         <v>0</v>
       </c>
       <c r="W84">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6948,7 +6984,7 @@
         <v>0</v>
       </c>
       <c r="W85">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -7019,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="W86">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -7090,7 +7126,7 @@
         <v>0</v>
       </c>
       <c r="W87">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -7161,7 +7197,7 @@
         <v>0</v>
       </c>
       <c r="W88">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -7232,7 +7268,7 @@
         <v>0</v>
       </c>
       <c r="W89">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -7303,7 +7339,7 @@
         <v>0</v>
       </c>
       <c r="W90">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -7374,7 +7410,7 @@
         <v>0</v>
       </c>
       <c r="W91">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -7445,7 +7481,7 @@
         <v>0</v>
       </c>
       <c r="W92">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7516,7 +7552,7 @@
         <v>0</v>
       </c>
       <c r="W93">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7587,7 +7623,7 @@
         <v>0</v>
       </c>
       <c r="W94">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7658,7 +7694,7 @@
         <v>0</v>
       </c>
       <c r="W95">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7729,7 +7765,7 @@
         <v>0</v>
       </c>
       <c r="W96">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7800,7 +7836,7 @@
         <v>0</v>
       </c>
       <c r="W97">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7871,7 +7907,7 @@
         <v>0</v>
       </c>
       <c r="W98">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7942,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="W99">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -8013,7 +8049,7 @@
         <v>0</v>
       </c>
       <c r="W100">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -8084,7 +8120,7 @@
         <v>0</v>
       </c>
       <c r="W101">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -8155,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="W102">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -8226,7 +8262,7 @@
         <v>0</v>
       </c>
       <c r="W103">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -8297,7 +8333,7 @@
         <v>0</v>
       </c>
       <c r="W104">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -8368,7 +8404,7 @@
         <v>0</v>
       </c>
       <c r="W105">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -8439,7 +8475,7 @@
         <v>0</v>
       </c>
       <c r="W106">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8510,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="W107">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8581,7 +8617,7 @@
         <v>0</v>
       </c>
       <c r="W108">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8652,7 +8688,7 @@
         <v>0</v>
       </c>
       <c r="W109">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8723,7 +8759,7 @@
         <v>0</v>
       </c>
       <c r="W110">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8794,7 +8830,7 @@
         <v>0</v>
       </c>
       <c r="W111">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8865,7 +8901,7 @@
         <v>0</v>
       </c>
       <c r="W112">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8936,7 +8972,7 @@
         <v>0</v>
       </c>
       <c r="W113">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -9007,7 +9043,7 @@
         <v>0</v>
       </c>
       <c r="W114">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -9078,7 +9114,7 @@
         <v>0</v>
       </c>
       <c r="W115">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -9149,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="W116">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -9220,7 +9256,7 @@
         <v>0</v>
       </c>
       <c r="W117">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -9291,7 +9327,7 @@
         <v>0</v>
       </c>
       <c r="W118">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -9362,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="W119">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -9433,7 +9469,7 @@
         <v>0</v>
       </c>
       <c r="W120">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9504,7 +9540,7 @@
         <v>0</v>
       </c>
       <c r="W121">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9575,7 +9611,7 @@
         <v>0</v>
       </c>
       <c r="W122">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9646,7 +9682,7 @@
         <v>0</v>
       </c>
       <c r="W123">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9717,7 +9753,7 @@
         <v>0</v>
       </c>
       <c r="W124">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9788,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="W125">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9859,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="W126">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9930,7 +9966,7 @@
         <v>0</v>
       </c>
       <c r="W127">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -10001,7 +10037,7 @@
         <v>0</v>
       </c>
       <c r="W128">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -10072,7 +10108,7 @@
         <v>0</v>
       </c>
       <c r="W129">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -10143,7 +10179,7 @@
         <v>0</v>
       </c>
       <c r="W130">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -10214,7 +10250,7 @@
         <v>0</v>
       </c>
       <c r="W131">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -10285,7 +10321,7 @@
         <v>0</v>
       </c>
       <c r="W132">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -10356,7 +10392,7 @@
         <v>0</v>
       </c>
       <c r="W133">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -10427,7 +10463,7 @@
         <v>0</v>
       </c>
       <c r="W134">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10498,7 +10534,7 @@
         <v>0</v>
       </c>
       <c r="W135">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10569,7 +10605,7 @@
         <v>0</v>
       </c>
       <c r="W136">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10640,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="W137">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10711,7 +10747,7 @@
         <v>0</v>
       </c>
       <c r="W138">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10782,7 +10818,7 @@
         <v>0</v>
       </c>
       <c r="W139">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10853,7 +10889,7 @@
         <v>0</v>
       </c>
       <c r="W140">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10924,7 +10960,7 @@
         <v>0</v>
       </c>
       <c r="W141">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10995,7 +11031,7 @@
         <v>0</v>
       </c>
       <c r="W142">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -11066,7 +11102,7 @@
         <v>0</v>
       </c>
       <c r="W143">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -11137,7 +11173,7 @@
         <v>0</v>
       </c>
       <c r="W144">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -11208,7 +11244,7 @@
         <v>0</v>
       </c>
       <c r="W145">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -11279,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="W146">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -11350,7 +11386,7 @@
         <v>0</v>
       </c>
       <c r="W147">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -11421,7 +11457,7 @@
         <v>0</v>
       </c>
       <c r="W148">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11492,7 +11528,7 @@
         <v>0</v>
       </c>
       <c r="W149">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11563,7 +11599,7 @@
         <v>0</v>
       </c>
       <c r="W150">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11634,7 +11670,7 @@
         <v>0</v>
       </c>
       <c r="W151">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11705,7 +11741,7 @@
         <v>0</v>
       </c>
       <c r="W152">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11776,7 +11812,7 @@
         <v>0</v>
       </c>
       <c r="W153">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11847,7 +11883,7 @@
         <v>0</v>
       </c>
       <c r="W154">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11918,7 +11954,7 @@
         <v>0</v>
       </c>
       <c r="W155">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11989,7 +12025,7 @@
         <v>0</v>
       </c>
       <c r="W156">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -12060,7 +12096,7 @@
         <v>0</v>
       </c>
       <c r="W157">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -12131,7 +12167,7 @@
         <v>0</v>
       </c>
       <c r="W158">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -12202,7 +12238,7 @@
         <v>0</v>
       </c>
       <c r="W159">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -12273,7 +12309,7 @@
         <v>0</v>
       </c>
       <c r="W160">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -12344,7 +12380,7 @@
         <v>0</v>
       </c>
       <c r="W161">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -12415,7 +12451,7 @@
         <v>0</v>
       </c>
       <c r="W162">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12486,7 +12522,7 @@
         <v>0</v>
       </c>
       <c r="W163">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12557,7 +12593,7 @@
         <v>0</v>
       </c>
       <c r="W164">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12628,7 +12664,7 @@
         <v>0</v>
       </c>
       <c r="W165">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12699,7 +12735,7 @@
         <v>0</v>
       </c>
       <c r="W166">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12770,7 +12806,7 @@
         <v>0</v>
       </c>
       <c r="W167">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12841,7 +12877,7 @@
         <v>0</v>
       </c>
       <c r="W168">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12912,7 +12948,7 @@
         <v>0</v>
       </c>
       <c r="W169">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12983,7 +13019,7 @@
         <v>0</v>
       </c>
       <c r="W170">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -13054,7 +13090,7 @@
         <v>0</v>
       </c>
       <c r="W171">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -13125,7 +13161,7 @@
         <v>0</v>
       </c>
       <c r="W172">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -13196,7 +13232,7 @@
         <v>0</v>
       </c>
       <c r="W173">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -13267,7 +13303,7 @@
         <v>0</v>
       </c>
       <c r="W174">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -13338,7 +13374,7 @@
         <v>0</v>
       </c>
       <c r="W175">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -13409,7 +13445,7 @@
         <v>0</v>
       </c>
       <c r="W176">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -13480,7 +13516,7 @@
         <v>0</v>
       </c>
       <c r="W177">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13551,7 +13587,7 @@
         <v>0</v>
       </c>
       <c r="W178">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13622,7 +13658,7 @@
         <v>0</v>
       </c>
       <c r="W179">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13693,7 +13729,7 @@
         <v>0</v>
       </c>
       <c r="W180">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13764,7 +13800,7 @@
         <v>0</v>
       </c>
       <c r="W181">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13835,7 +13871,7 @@
         <v>0</v>
       </c>
       <c r="W182">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13906,7 +13942,7 @@
         <v>0</v>
       </c>
       <c r="W183">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13977,7 +14013,7 @@
         <v>0</v>
       </c>
       <c r="W184">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -14048,7 +14084,7 @@
         <v>0</v>
       </c>
       <c r="W185">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -14119,7 +14155,7 @@
         <v>0</v>
       </c>
       <c r="W186">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -14190,7 +14226,7 @@
         <v>0</v>
       </c>
       <c r="W187">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -14261,7 +14297,7 @@
         <v>0</v>
       </c>
       <c r="W188">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -14332,7 +14368,7 @@
         <v>0</v>
       </c>
       <c r="W189">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -14403,7 +14439,7 @@
         <v>0</v>
       </c>
       <c r="W190">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -14474,7 +14510,7 @@
         <v>0</v>
       </c>
       <c r="W191">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14545,7 +14581,7 @@
         <v>0</v>
       </c>
       <c r="W192">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14616,7 +14652,7 @@
         <v>0</v>
       </c>
       <c r="W193">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14687,7 +14723,7 @@
         <v>0</v>
       </c>
       <c r="W194">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14758,7 +14794,7 @@
         <v>0</v>
       </c>
       <c r="W195">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14829,7 +14865,7 @@
         <v>0</v>
       </c>
       <c r="W196">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14900,7 +14936,7 @@
         <v>0</v>
       </c>
       <c r="W197">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14971,7 +15007,7 @@
         <v>0</v>
       </c>
       <c r="W198">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -15042,7 +15078,7 @@
         <v>0</v>
       </c>
       <c r="W199">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -15113,7 +15149,7 @@
         <v>0</v>
       </c>
       <c r="W200">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -15184,7 +15220,7 @@
         <v>0</v>
       </c>
       <c r="W201">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -15255,7 +15291,7 @@
         <v>0</v>
       </c>
       <c r="W202">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -15326,7 +15362,7 @@
         <v>0</v>
       </c>
       <c r="W203">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -15397,7 +15433,7 @@
         <v>0</v>
       </c>
       <c r="W204">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -15468,7 +15504,7 @@
         <v>0</v>
       </c>
       <c r="W205">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15539,7 +15575,7 @@
         <v>0</v>
       </c>
       <c r="W206">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15610,7 +15646,7 @@
         <v>0</v>
       </c>
       <c r="W207">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15681,7 +15717,7 @@
         <v>0</v>
       </c>
       <c r="W208">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15752,7 +15788,7 @@
         <v>0</v>
       </c>
       <c r="W209">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15823,7 +15859,7 @@
         <v>0</v>
       </c>
       <c r="W210">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15894,7 +15930,7 @@
         <v>0</v>
       </c>
       <c r="W211">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15965,7 +16001,7 @@
         <v>0</v>
       </c>
       <c r="W212">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -16036,7 +16072,7 @@
         <v>0</v>
       </c>
       <c r="W213">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -16107,7 +16143,7 @@
         <v>0</v>
       </c>
       <c r="W214">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -16178,7 +16214,7 @@
         <v>0</v>
       </c>
       <c r="W215">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -16249,7 +16285,7 @@
         <v>0</v>
       </c>
       <c r="W216">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -16320,7 +16356,7 @@
         <v>0</v>
       </c>
       <c r="W217">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -16391,7 +16427,7 @@
         <v>0</v>
       </c>
       <c r="W218">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -16462,7 +16498,7 @@
         <v>0</v>
       </c>
       <c r="W219">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16533,7 +16569,7 @@
         <v>0</v>
       </c>
       <c r="W220">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16604,7 +16640,859 @@
         <v>0</v>
       </c>
       <c r="W221">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="222" spans="1:23">
+      <c r="A222" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>0</v>
+      </c>
+      <c r="O222">
+        <v>0</v>
+      </c>
+      <c r="P222">
+        <v>0</v>
+      </c>
+      <c r="Q222">
+        <v>0</v>
+      </c>
+      <c r="R222">
+        <v>1</v>
+      </c>
+      <c r="S222">
+        <v>1</v>
+      </c>
+      <c r="T222">
+        <v>1</v>
+      </c>
+      <c r="U222">
+        <v>1</v>
+      </c>
+      <c r="V222">
+        <v>0</v>
+      </c>
+      <c r="W222">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="223" spans="1:23">
+      <c r="A223" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <v>0</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223">
+        <v>1</v>
+      </c>
+      <c r="S223">
+        <v>1</v>
+      </c>
+      <c r="T223">
+        <v>1</v>
+      </c>
+      <c r="U223">
+        <v>1</v>
+      </c>
+      <c r="V223">
+        <v>0</v>
+      </c>
+      <c r="W223">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="224" spans="1:23">
+      <c r="A224" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224">
+        <v>1</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <v>0</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <v>1</v>
+      </c>
+      <c r="S224">
+        <v>1</v>
+      </c>
+      <c r="T224">
+        <v>1</v>
+      </c>
+      <c r="U224">
+        <v>1</v>
+      </c>
+      <c r="V224">
+        <v>0</v>
+      </c>
+      <c r="W224">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="225" spans="1:23">
+      <c r="A225" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225">
+        <v>1</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>1</v>
+      </c>
+      <c r="S225">
+        <v>1</v>
+      </c>
+      <c r="T225">
+        <v>1</v>
+      </c>
+      <c r="U225">
+        <v>1</v>
+      </c>
+      <c r="V225">
+        <v>0</v>
+      </c>
+      <c r="W225">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="226" spans="1:23">
+      <c r="A226" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+      <c r="F226">
+        <v>1</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>1</v>
+      </c>
+      <c r="S226">
+        <v>1</v>
+      </c>
+      <c r="T226">
+        <v>1</v>
+      </c>
+      <c r="U226">
+        <v>1</v>
+      </c>
+      <c r="V226">
+        <v>0</v>
+      </c>
+      <c r="W226">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="227" spans="1:23">
+      <c r="A227" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <v>0</v>
+      </c>
+      <c r="P227">
+        <v>0</v>
+      </c>
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227">
+        <v>1</v>
+      </c>
+      <c r="S227">
+        <v>1</v>
+      </c>
+      <c r="T227">
+        <v>1</v>
+      </c>
+      <c r="U227">
+        <v>1</v>
+      </c>
+      <c r="V227">
+        <v>0</v>
+      </c>
+      <c r="W227">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="228" spans="1:23">
+      <c r="A228" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <v>0</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <v>1</v>
+      </c>
+      <c r="S228">
+        <v>1</v>
+      </c>
+      <c r="T228">
+        <v>1</v>
+      </c>
+      <c r="U228">
+        <v>1</v>
+      </c>
+      <c r="V228">
+        <v>0</v>
+      </c>
+      <c r="W228">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="229" spans="1:23">
+      <c r="A229" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <v>1</v>
+      </c>
+      <c r="S229">
+        <v>1</v>
+      </c>
+      <c r="T229">
+        <v>1</v>
+      </c>
+      <c r="U229">
+        <v>1</v>
+      </c>
+      <c r="V229">
+        <v>0</v>
+      </c>
+      <c r="W229">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="230" spans="1:23">
+      <c r="A230" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="F230">
+        <v>1</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <v>1</v>
+      </c>
+      <c r="S230">
+        <v>1</v>
+      </c>
+      <c r="T230">
+        <v>1</v>
+      </c>
+      <c r="U230">
+        <v>1</v>
+      </c>
+      <c r="V230">
+        <v>0</v>
+      </c>
+      <c r="W230">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="231" spans="1:23">
+      <c r="A231" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>1</v>
+      </c>
+      <c r="F231">
+        <v>1</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <v>0</v>
+      </c>
+      <c r="P231">
+        <v>0</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <v>1</v>
+      </c>
+      <c r="S231">
+        <v>1</v>
+      </c>
+      <c r="T231">
+        <v>1</v>
+      </c>
+      <c r="U231">
+        <v>1</v>
+      </c>
+      <c r="V231">
+        <v>0</v>
+      </c>
+      <c r="W231">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="232" spans="1:23">
+      <c r="A232" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232">
+        <v>1</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <v>0</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232">
+        <v>1</v>
+      </c>
+      <c r="S232">
+        <v>1</v>
+      </c>
+      <c r="T232">
+        <v>1</v>
+      </c>
+      <c r="U232">
+        <v>1</v>
+      </c>
+      <c r="V232">
+        <v>0</v>
+      </c>
+      <c r="W232">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="233" spans="1:23">
+      <c r="A233" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
+      </c>
+      <c r="F233">
+        <v>1</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <v>0</v>
+      </c>
+      <c r="P233">
+        <v>0</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233">
+        <v>1</v>
+      </c>
+      <c r="S233">
+        <v>1</v>
+      </c>
+      <c r="T233">
+        <v>1</v>
+      </c>
+      <c r="U233">
+        <v>1</v>
+      </c>
+      <c r="V233">
+        <v>0</v>
+      </c>
+      <c r="W233">
+        <v>0.3333333333333333</v>
       </c>
     </row>
   </sheetData>
